--- a/Julio/30 julio/tepic/ADECUACIÓN I.T. TEPIC LISTA  ASPIRANTES   EVALUATEC OFICIAL JULIO 2024 (1).xlsx
+++ b/Julio/30 julio/tepic/ADECUACIÓN I.T. TEPIC LISTA  ASPIRANTES   EVALUATEC OFICIAL JULIO 2024 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Servicios Académicos\Documents\NUEVO INGRESO 2024\EVALUATEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Julio\30 julio\tepic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5700C904-3D99-433D-94EE-D7FF8C96BEF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BF3CFB-6D51-4D6F-94BD-3AF9D3600B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{D610CFFB-2790-104B-A52B-2B33694C28D9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D610CFFB-2790-104B-A52B-2B33694C28D9}"/>
   </bookViews>
   <sheets>
     <sheet name="I.T. TEPIC" sheetId="1" r:id="rId1"/>
@@ -11821,7 +11821,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -11852,9 +11852,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -11871,19 +11868,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -11892,6 +11882,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -11941,7 +11940,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5925BC7A-0E73-734D-A0C9-B8A68F88FF64}" name="Tabla2" displayName="Tabla2" ref="A4:N1322" totalsRowShown="0">
-  <autoFilter ref="A4:N1322" xr:uid="{5925BC7A-0E73-734D-A0C9-B8A68F88FF64}"/>
+  <autoFilter ref="A4:N1322" xr:uid="{5925BC7A-0E73-734D-A0C9-B8A68F88FF64}">
+    <filterColumn colId="9">
+      <filters>
+        <dateGroupItem year="2024" month="7" day="30" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A919:N1255">
+    <sortCondition descending="1" ref="K4:K1322"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{F5111305-CA2B-DF41-BA05-5C9A177B7523}" name="FICHA"/>
     <tableColumn id="2" xr3:uid="{D956ADB6-2882-CB4B-9C6B-032AC358A5C1}" name="NOMBRE ASPIRANTE"/>
@@ -11963,9 +11971,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12003,7 +12011,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -12109,7 +12117,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12251,7 +12259,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12261,8 +12269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D137AA-41E5-5140-AC23-8A814C9A306A}">
   <dimension ref="A1:N1322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="J1139" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K919" sqref="K919"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12284,30 +12292,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="26"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="L2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:14" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="22" t="s">
         <v>3865</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>3864</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="N3" s="22" t="s">
+      <c r="L3" s="27"/>
+      <c r="N3" s="20" t="s">
         <v>3863</v>
       </c>
     </row>
@@ -12355,7 +12363,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1468</v>
       </c>
@@ -12399,7 +12407,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1471</v>
       </c>
@@ -12443,7 +12451,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1475</v>
       </c>
@@ -12487,7 +12495,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1476</v>
       </c>
@@ -12531,7 +12539,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1479</v>
       </c>
@@ -12575,7 +12583,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1484</v>
       </c>
@@ -12619,7 +12627,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1488</v>
       </c>
@@ -12663,7 +12671,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1489</v>
       </c>
@@ -12707,7 +12715,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1490</v>
       </c>
@@ -12751,7 +12759,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1491</v>
       </c>
@@ -12795,7 +12803,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1496</v>
       </c>
@@ -12839,7 +12847,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1498</v>
       </c>
@@ -12883,7 +12891,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1499</v>
       </c>
@@ -12927,7 +12935,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1500</v>
       </c>
@@ -12971,7 +12979,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1511</v>
       </c>
@@ -13015,7 +13023,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1516</v>
       </c>
@@ -13059,7 +13067,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1527</v>
       </c>
@@ -13103,7 +13111,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1537</v>
       </c>
@@ -13147,7 +13155,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1540</v>
       </c>
@@ -13191,7 +13199,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1552</v>
       </c>
@@ -13235,7 +13243,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1557</v>
       </c>
@@ -13279,7 +13287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1559</v>
       </c>
@@ -13323,7 +13331,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1563</v>
       </c>
@@ -13367,7 +13375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1564</v>
       </c>
@@ -13411,7 +13419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1565</v>
       </c>
@@ -13455,7 +13463,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1585</v>
       </c>
@@ -13499,7 +13507,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1598</v>
       </c>
@@ -13543,7 +13551,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1615</v>
       </c>
@@ -13587,7 +13595,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1618</v>
       </c>
@@ -13631,7 +13639,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1624</v>
       </c>
@@ -13675,7 +13683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1629</v>
       </c>
@@ -13719,7 +13727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1638</v>
       </c>
@@ -13763,7 +13771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1643</v>
       </c>
@@ -13807,7 +13815,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1644</v>
       </c>
@@ -13851,7 +13859,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1648</v>
       </c>
@@ -13895,7 +13903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1650</v>
       </c>
@@ -13939,7 +13947,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1655</v>
       </c>
@@ -13983,7 +13991,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1662</v>
       </c>
@@ -14027,7 +14035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1667</v>
       </c>
@@ -14071,7 +14079,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -14115,7 +14123,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12</v>
       </c>
@@ -14159,7 +14167,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15</v>
       </c>
@@ -14203,7 +14211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>17</v>
       </c>
@@ -14247,7 +14255,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>18</v>
       </c>
@@ -14291,7 +14299,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>25</v>
       </c>
@@ -14335,7 +14343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>29</v>
       </c>
@@ -14379,7 +14387,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>34</v>
       </c>
@@ -14423,7 +14431,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>44</v>
       </c>
@@ -14467,7 +14475,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>48</v>
       </c>
@@ -14511,7 +14519,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>57</v>
       </c>
@@ -14555,7 +14563,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>63</v>
       </c>
@@ -14599,7 +14607,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>70</v>
       </c>
@@ -14643,7 +14651,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>76</v>
       </c>
@@ -14687,7 +14695,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>81</v>
       </c>
@@ -14731,7 +14739,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>89</v>
       </c>
@@ -14775,7 +14783,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>101</v>
       </c>
@@ -14819,7 +14827,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>111</v>
       </c>
@@ -14863,7 +14871,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>118</v>
       </c>
@@ -14907,7 +14915,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>123</v>
       </c>
@@ -14951,7 +14959,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>128</v>
       </c>
@@ -14995,7 +15003,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>133</v>
       </c>
@@ -15039,7 +15047,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>136</v>
       </c>
@@ -15083,7 +15091,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>153</v>
       </c>
@@ -15127,7 +15135,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>163</v>
       </c>
@@ -15171,7 +15179,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>165</v>
       </c>
@@ -15215,7 +15223,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>180</v>
       </c>
@@ -15259,7 +15267,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>183</v>
       </c>
@@ -15303,7 +15311,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>195</v>
       </c>
@@ -15347,7 +15355,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201</v>
       </c>
@@ -15391,7 +15399,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>203</v>
       </c>
@@ -15435,7 +15443,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>205</v>
       </c>
@@ -15479,7 +15487,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>212</v>
       </c>
@@ -15523,7 +15531,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>221</v>
       </c>
@@ -15567,7 +15575,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>224</v>
       </c>
@@ -15611,7 +15619,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>228</v>
       </c>
@@ -15655,7 +15663,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>232</v>
       </c>
@@ -15699,7 +15707,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>234</v>
       </c>
@@ -15743,7 +15751,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>244</v>
       </c>
@@ -15787,7 +15795,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>253</v>
       </c>
@@ -15831,7 +15839,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>11</v>
       </c>
@@ -15875,7 +15883,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>96</v>
       </c>
@@ -15919,7 +15927,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>160</v>
       </c>
@@ -15963,7 +15971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>254</v>
       </c>
@@ -16007,7 +16015,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>261</v>
       </c>
@@ -16051,7 +16059,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>267</v>
       </c>
@@ -16095,7 +16103,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>394</v>
       </c>
@@ -16139,7 +16147,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>404</v>
       </c>
@@ -16183,7 +16191,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>408</v>
       </c>
@@ -16227,7 +16235,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>453</v>
       </c>
@@ -16271,7 +16279,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>490</v>
       </c>
@@ -16315,7 +16323,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>523</v>
       </c>
@@ -16359,7 +16367,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>554</v>
       </c>
@@ -16403,7 +16411,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>580</v>
       </c>
@@ -16447,7 +16455,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>587</v>
       </c>
@@ -16491,7 +16499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>622</v>
       </c>
@@ -16535,7 +16543,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>664</v>
       </c>
@@ -16579,7 +16587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>710</v>
       </c>
@@ -16623,7 +16631,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>717</v>
       </c>
@@ -16667,7 +16675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>727</v>
       </c>
@@ -16711,7 +16719,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>748</v>
       </c>
@@ -16755,7 +16763,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>766</v>
       </c>
@@ -16799,7 +16807,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>812</v>
       </c>
@@ -16843,7 +16851,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>816</v>
       </c>
@@ -16887,7 +16895,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>818</v>
       </c>
@@ -16931,7 +16939,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>824</v>
       </c>
@@ -16975,7 +16983,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>826</v>
       </c>
@@ -17019,7 +17027,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>832</v>
       </c>
@@ -17063,7 +17071,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>849</v>
       </c>
@@ -17107,7 +17115,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>497</v>
       </c>
@@ -17151,7 +17159,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>902</v>
       </c>
@@ -17195,7 +17203,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>934</v>
       </c>
@@ -17239,7 +17247,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>937</v>
       </c>
@@ -17283,7 +17291,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>993</v>
       </c>
@@ -17327,7 +17335,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1000</v>
       </c>
@@ -17371,7 +17379,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1048</v>
       </c>
@@ -17415,7 +17423,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1105</v>
       </c>
@@ -17459,7 +17467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1117</v>
       </c>
@@ -17503,7 +17511,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1134</v>
       </c>
@@ -17547,7 +17555,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>537</v>
       </c>
@@ -17591,7 +17599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>301</v>
       </c>
@@ -17635,7 +17643,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>321</v>
       </c>
@@ -17679,7 +17687,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>322</v>
       </c>
@@ -17723,7 +17731,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>336</v>
       </c>
@@ -17767,7 +17775,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>337</v>
       </c>
@@ -17811,7 +17819,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>341</v>
       </c>
@@ -17855,7 +17863,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>353</v>
       </c>
@@ -17899,7 +17907,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>355</v>
       </c>
@@ -17943,7 +17951,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>358</v>
       </c>
@@ -17987,7 +17995,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>365</v>
       </c>
@@ -18031,7 +18039,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>380</v>
       </c>
@@ -18075,7 +18083,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>388</v>
       </c>
@@ -18119,7 +18127,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>391</v>
       </c>
@@ -18163,7 +18171,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>397</v>
       </c>
@@ -18207,7 +18215,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>399</v>
       </c>
@@ -18251,7 +18259,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>400</v>
       </c>
@@ -18295,7 +18303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>419</v>
       </c>
@@ -18339,7 +18347,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>422</v>
       </c>
@@ -18383,7 +18391,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>423</v>
       </c>
@@ -18427,7 +18435,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>434</v>
       </c>
@@ -18471,7 +18479,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>435</v>
       </c>
@@ -18515,7 +18523,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>438</v>
       </c>
@@ -18559,7 +18567,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>445</v>
       </c>
@@ -18603,7 +18611,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>448</v>
       </c>
@@ -18647,7 +18655,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>457</v>
       </c>
@@ -18691,7 +18699,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>465</v>
       </c>
@@ -18735,7 +18743,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>472</v>
       </c>
@@ -18779,7 +18787,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>480</v>
       </c>
@@ -18823,7 +18831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>482</v>
       </c>
@@ -18867,7 +18875,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>498</v>
       </c>
@@ -18911,7 +18919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>520</v>
       </c>
@@ -18955,7 +18963,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>532</v>
       </c>
@@ -18999,7 +19007,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>551</v>
       </c>
@@ -19043,7 +19051,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>561</v>
       </c>
@@ -19087,7 +19095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>566</v>
       </c>
@@ -19131,7 +19139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>567</v>
       </c>
@@ -19175,7 +19183,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>570</v>
       </c>
@@ -19219,7 +19227,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>571</v>
       </c>
@@ -19263,7 +19271,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>963</v>
       </c>
@@ -19307,7 +19315,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>965</v>
       </c>
@@ -19351,7 +19359,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>968</v>
       </c>
@@ -19395,7 +19403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>969</v>
       </c>
@@ -19439,7 +19447,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>975</v>
       </c>
@@ -19483,7 +19491,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>994</v>
       </c>
@@ -19527,7 +19535,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>995</v>
       </c>
@@ -19571,7 +19579,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>998</v>
       </c>
@@ -19615,7 +19623,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>999</v>
       </c>
@@ -19659,7 +19667,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1014</v>
       </c>
@@ -19703,7 +19711,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1016</v>
       </c>
@@ -19747,7 +19755,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1023</v>
       </c>
@@ -19791,7 +19799,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1026</v>
       </c>
@@ -19835,7 +19843,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1027</v>
       </c>
@@ -19879,7 +19887,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1034</v>
       </c>
@@ -19923,7 +19931,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1035</v>
       </c>
@@ -19967,7 +19975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1040</v>
       </c>
@@ -20011,7 +20019,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1045</v>
       </c>
@@ -20055,7 +20063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1051</v>
       </c>
@@ -20099,7 +20107,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1055</v>
       </c>
@@ -20143,7 +20151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1061</v>
       </c>
@@ -20187,7 +20195,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1065</v>
       </c>
@@ -20231,7 +20239,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1067</v>
       </c>
@@ -20275,7 +20283,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1070</v>
       </c>
@@ -20319,7 +20327,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1082</v>
       </c>
@@ -20363,7 +20371,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1084</v>
       </c>
@@ -20407,7 +20415,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1091</v>
       </c>
@@ -20451,7 +20459,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1113</v>
       </c>
@@ -20495,7 +20503,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1509</v>
       </c>
@@ -20539,7 +20547,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1121</v>
       </c>
@@ -20583,7 +20591,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1127</v>
       </c>
@@ -20627,7 +20635,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1142</v>
       </c>
@@ -20671,7 +20679,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1144</v>
       </c>
@@ -20715,7 +20723,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1151</v>
       </c>
@@ -20759,7 +20767,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1154</v>
       </c>
@@ -20803,7 +20811,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1158</v>
       </c>
@@ -20847,7 +20855,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1163</v>
       </c>
@@ -20891,7 +20899,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1169</v>
       </c>
@@ -20935,7 +20943,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1179</v>
       </c>
@@ -20979,7 +20987,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>857</v>
       </c>
@@ -21023,7 +21031,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>870</v>
       </c>
@@ -21067,7 +21075,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>875</v>
       </c>
@@ -21111,7 +21119,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>877</v>
       </c>
@@ -21155,7 +21163,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>897</v>
       </c>
@@ -21199,7 +21207,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>916</v>
       </c>
@@ -21243,7 +21251,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>931</v>
       </c>
@@ -21287,7 +21295,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>941</v>
       </c>
@@ -21331,7 +21339,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>950</v>
       </c>
@@ -21375,7 +21383,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>981</v>
       </c>
@@ -21419,7 +21427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>988</v>
       </c>
@@ -21463,7 +21471,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>996</v>
       </c>
@@ -21507,7 +21515,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1007</v>
       </c>
@@ -21551,7 +21559,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1008</v>
       </c>
@@ -21595,7 +21603,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1010</v>
       </c>
@@ -21639,7 +21647,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1011</v>
       </c>
@@ -21683,7 +21691,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1043</v>
       </c>
@@ -21727,7 +21735,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1044</v>
       </c>
@@ -21771,7 +21779,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1047</v>
       </c>
@@ -21815,7 +21823,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1059</v>
       </c>
@@ -21859,7 +21867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1066</v>
       </c>
@@ -21903,7 +21911,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1079</v>
       </c>
@@ -21947,7 +21955,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1085</v>
       </c>
@@ -21991,7 +21999,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1093</v>
       </c>
@@ -22035,7 +22043,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1097</v>
       </c>
@@ -22079,7 +22087,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1112</v>
       </c>
@@ -22123,7 +22131,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1123</v>
       </c>
@@ -22167,7 +22175,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1131</v>
       </c>
@@ -22211,7 +22219,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1145</v>
       </c>
@@ -22255,7 +22263,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1146</v>
       </c>
@@ -22299,7 +22307,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1149</v>
       </c>
@@ -22343,7 +22351,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1152</v>
       </c>
@@ -22387,7 +22395,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1185</v>
       </c>
@@ -22431,7 +22439,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1192</v>
       </c>
@@ -22475,7 +22483,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1220</v>
       </c>
@@ -22519,7 +22527,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1222</v>
       </c>
@@ -22563,7 +22571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1230</v>
       </c>
@@ -22607,7 +22615,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1236</v>
       </c>
@@ -22651,7 +22659,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1274</v>
       </c>
@@ -22695,7 +22703,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1284</v>
       </c>
@@ -22739,7 +22747,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>584</v>
       </c>
@@ -22783,7 +22791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>586</v>
       </c>
@@ -22827,7 +22835,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>592</v>
       </c>
@@ -22871,7 +22879,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>596</v>
       </c>
@@ -22915,7 +22923,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>599</v>
       </c>
@@ -22959,7 +22967,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>601</v>
       </c>
@@ -23003,7 +23011,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>606</v>
       </c>
@@ -23047,7 +23055,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>609</v>
       </c>
@@ -23091,7 +23099,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>627</v>
       </c>
@@ -23135,7 +23143,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>632</v>
       </c>
@@ -23179,7 +23187,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>634</v>
       </c>
@@ -23223,7 +23231,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>635</v>
       </c>
@@ -23267,7 +23275,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>638</v>
       </c>
@@ -23311,7 +23319,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>645</v>
       </c>
@@ -23355,7 +23363,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>657</v>
       </c>
@@ -23399,7 +23407,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>673</v>
       </c>
@@ -23443,7 +23451,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>677</v>
       </c>
@@ -23487,7 +23495,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>686</v>
       </c>
@@ -23531,7 +23539,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>689</v>
       </c>
@@ -23575,7 +23583,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>690</v>
       </c>
@@ -23619,7 +23627,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>693</v>
       </c>
@@ -23663,7 +23671,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>700</v>
       </c>
@@ -23707,7 +23715,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>723</v>
       </c>
@@ -23751,7 +23759,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>730</v>
       </c>
@@ -23795,7 +23803,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>740</v>
       </c>
@@ -23839,7 +23847,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>750</v>
       </c>
@@ -23883,7 +23891,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>758</v>
       </c>
@@ -23927,7 +23935,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>771</v>
       </c>
@@ -23971,7 +23979,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>773</v>
       </c>
@@ -24015,7 +24023,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>776</v>
       </c>
@@ -24059,7 +24067,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>794</v>
       </c>
@@ -24103,7 +24111,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>800</v>
       </c>
@@ -24147,7 +24155,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>814</v>
       </c>
@@ -24191,7 +24199,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>820</v>
       </c>
@@ -24235,7 +24243,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>823</v>
       </c>
@@ -24279,7 +24287,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>825</v>
       </c>
@@ -24323,7 +24331,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>852</v>
       </c>
@@ -24367,7 +24375,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>865</v>
       </c>
@@ -24411,7 +24419,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>866</v>
       </c>
@@ -24455,7 +24463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>871</v>
       </c>
@@ -24499,7 +24507,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>30</v>
       </c>
@@ -24543,7 +24551,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>49</v>
       </c>
@@ -24587,7 +24595,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>68</v>
       </c>
@@ -24631,7 +24639,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>82</v>
       </c>
@@ -24675,7 +24683,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>83</v>
       </c>
@@ -24719,7 +24727,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>99</v>
       </c>
@@ -24763,7 +24771,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>115</v>
       </c>
@@ -24807,7 +24815,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>145</v>
       </c>
@@ -24851,7 +24859,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>164</v>
       </c>
@@ -24895,7 +24903,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>171</v>
       </c>
@@ -24939,7 +24947,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>181</v>
       </c>
@@ -24983,7 +24991,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>196</v>
       </c>
@@ -25027,7 +25035,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>223</v>
       </c>
@@ -25071,7 +25079,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>233</v>
       </c>
@@ -25115,7 +25123,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>269</v>
       </c>
@@ -25159,7 +25167,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>346</v>
       </c>
@@ -25203,7 +25211,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>364</v>
       </c>
@@ -25247,7 +25255,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>384</v>
       </c>
@@ -25291,7 +25299,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>432</v>
       </c>
@@ -25335,7 +25343,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>441</v>
       </c>
@@ -25379,7 +25387,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>452</v>
       </c>
@@ -25423,7 +25431,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>466</v>
       </c>
@@ -25467,7 +25475,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>478</v>
       </c>
@@ -25511,7 +25519,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>512</v>
       </c>
@@ -25555,7 +25563,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>530</v>
       </c>
@@ -25599,7 +25607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>545</v>
       </c>
@@ -25643,7 +25651,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>569</v>
       </c>
@@ -25687,7 +25695,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>573</v>
       </c>
@@ -25731,7 +25739,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>578</v>
       </c>
@@ -25775,7 +25783,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>600</v>
       </c>
@@ -25819,7 +25827,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>608</v>
       </c>
@@ -25863,7 +25871,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>614</v>
       </c>
@@ -25907,7 +25915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>625</v>
       </c>
@@ -25951,7 +25959,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>682</v>
       </c>
@@ -25995,7 +26003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>721</v>
       </c>
@@ -26039,7 +26047,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>726</v>
       </c>
@@ -26083,7 +26091,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>761</v>
       </c>
@@ -26127,7 +26135,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>765</v>
       </c>
@@ -26171,7 +26179,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>789</v>
       </c>
@@ -26215,7 +26223,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>803</v>
       </c>
@@ -26259,7 +26267,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>78</v>
       </c>
@@ -26303,7 +26311,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>95</v>
       </c>
@@ -26347,7 +26355,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>104</v>
       </c>
@@ -26391,7 +26399,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>137</v>
       </c>
@@ -26435,7 +26443,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>182</v>
       </c>
@@ -26479,7 +26487,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>188</v>
       </c>
@@ -26523,7 +26531,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>211</v>
       </c>
@@ -26567,7 +26575,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>215</v>
       </c>
@@ -26611,7 +26619,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>226</v>
       </c>
@@ -26655,7 +26663,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>246</v>
       </c>
@@ -26699,7 +26707,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>255</v>
       </c>
@@ -26743,7 +26751,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>306</v>
       </c>
@@ -26787,7 +26795,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>328</v>
       </c>
@@ -26831,7 +26839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>354</v>
       </c>
@@ -26875,7 +26883,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>366</v>
       </c>
@@ -26919,7 +26927,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>369</v>
       </c>
@@ -26963,7 +26971,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>396</v>
       </c>
@@ -27007,7 +27015,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>425</v>
       </c>
@@ -27051,7 +27059,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>433</v>
       </c>
@@ -27095,7 +27103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>436</v>
       </c>
@@ -27139,7 +27147,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>506</v>
       </c>
@@ -27183,7 +27191,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>516</v>
       </c>
@@ -27227,7 +27235,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>517</v>
       </c>
@@ -27271,7 +27279,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>525</v>
       </c>
@@ -27315,7 +27323,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>548</v>
       </c>
@@ -27359,7 +27367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>577</v>
       </c>
@@ -27403,7 +27411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>621</v>
       </c>
@@ -27447,7 +27455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>653</v>
       </c>
@@ -27491,7 +27499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>716</v>
       </c>
@@ -27535,7 +27543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>733</v>
       </c>
@@ -27579,7 +27587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>787</v>
       </c>
@@ -27623,7 +27631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>806</v>
       </c>
@@ -27667,7 +27675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>829</v>
       </c>
@@ -27711,7 +27719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>838</v>
       </c>
@@ -27755,7 +27763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>876</v>
       </c>
@@ -27799,7 +27807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>910</v>
       </c>
@@ -27843,7 +27851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>989</v>
       </c>
@@ -27887,7 +27895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1054</v>
       </c>
@@ -27931,7 +27939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1057</v>
       </c>
@@ -27975,7 +27983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1063</v>
       </c>
@@ -28019,7 +28027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>256</v>
       </c>
@@ -28063,7 +28071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>258</v>
       </c>
@@ -28107,7 +28115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>259</v>
       </c>
@@ -28151,7 +28159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>260</v>
       </c>
@@ -28195,7 +28203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>268</v>
       </c>
@@ -28239,7 +28247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>275</v>
       </c>
@@ -28283,7 +28291,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>276</v>
       </c>
@@ -28327,7 +28335,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>282</v>
       </c>
@@ -28371,7 +28379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>283</v>
       </c>
@@ -28415,7 +28423,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>285</v>
       </c>
@@ -28459,7 +28467,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>286</v>
       </c>
@@ -28503,7 +28511,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>295</v>
       </c>
@@ -28547,7 +28555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>299</v>
       </c>
@@ -28591,7 +28599,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>302</v>
       </c>
@@ -28635,7 +28643,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>305</v>
       </c>
@@ -28679,7 +28687,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>308</v>
       </c>
@@ -28723,7 +28731,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>309</v>
       </c>
@@ -28767,7 +28775,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>311</v>
       </c>
@@ -28811,7 +28819,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>314</v>
       </c>
@@ -28855,7 +28863,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>316</v>
       </c>
@@ -28899,7 +28907,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>318</v>
       </c>
@@ -28943,7 +28951,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>320</v>
       </c>
@@ -28987,7 +28995,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>323</v>
       </c>
@@ -29031,7 +29039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>329</v>
       </c>
@@ -29075,7 +29083,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>330</v>
       </c>
@@ -29119,7 +29127,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>331</v>
       </c>
@@ -29163,7 +29171,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>339</v>
       </c>
@@ -29207,7 +29215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>342</v>
       </c>
@@ -29251,7 +29259,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>343</v>
       </c>
@@ -29295,7 +29303,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>345</v>
       </c>
@@ -29339,7 +29347,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>350</v>
       </c>
@@ -29383,7 +29391,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>357</v>
       </c>
@@ -29427,7 +29435,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>361</v>
       </c>
@@ -29471,7 +29479,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>363</v>
       </c>
@@ -29515,7 +29523,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>372</v>
       </c>
@@ -29559,7 +29567,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>373</v>
       </c>
@@ -29603,7 +29611,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>378</v>
       </c>
@@ -29647,7 +29655,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>386</v>
       </c>
@@ -29691,7 +29699,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>389</v>
       </c>
@@ -29735,7 +29743,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>872</v>
       </c>
@@ -29779,7 +29787,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>879</v>
       </c>
@@ -29823,7 +29831,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>882</v>
       </c>
@@ -29867,7 +29875,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>884</v>
       </c>
@@ -29911,7 +29919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>888</v>
       </c>
@@ -29955,7 +29963,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>894</v>
       </c>
@@ -29999,7 +30007,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>905</v>
       </c>
@@ -30043,7 +30051,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>909</v>
       </c>
@@ -30087,7 +30095,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>922</v>
       </c>
@@ -30131,7 +30139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>947</v>
       </c>
@@ -30175,7 +30183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>952</v>
       </c>
@@ -30219,7 +30227,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>960</v>
       </c>
@@ -30263,7 +30271,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>973</v>
       </c>
@@ -30307,7 +30315,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1002</v>
       </c>
@@ -30351,7 +30359,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1006</v>
       </c>
@@ -30395,7 +30403,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1021</v>
       </c>
@@ -30439,7 +30447,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1039</v>
       </c>
@@ -30483,7 +30491,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1042</v>
       </c>
@@ -30527,7 +30535,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1056</v>
       </c>
@@ -30571,7 +30579,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1068</v>
       </c>
@@ -30615,7 +30623,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1102</v>
       </c>
@@ -30659,7 +30667,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1120</v>
       </c>
@@ -30703,7 +30711,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1125</v>
       </c>
@@ -30747,7 +30755,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1135</v>
       </c>
@@ -30791,7 +30799,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1162</v>
       </c>
@@ -30835,7 +30843,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1166</v>
       </c>
@@ -30879,7 +30887,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1172</v>
       </c>
@@ -30923,7 +30931,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1198</v>
       </c>
@@ -30967,7 +30975,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1210</v>
       </c>
@@ -31011,7 +31019,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1213</v>
       </c>
@@ -31055,7 +31063,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1218</v>
       </c>
@@ -31099,7 +31107,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1219</v>
       </c>
@@ -31143,7 +31151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1226</v>
       </c>
@@ -31187,7 +31195,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1286</v>
       </c>
@@ -31231,7 +31239,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1292</v>
       </c>
@@ -31275,7 +31283,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1312</v>
       </c>
@@ -31319,7 +31327,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>1316</v>
       </c>
@@ -31363,7 +31371,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1326</v>
       </c>
@@ -31407,7 +31415,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>1332</v>
       </c>
@@ -31451,7 +31459,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>1838</v>
       </c>
@@ -31495,7 +31503,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>1</v>
       </c>
@@ -31539,7 +31547,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>24</v>
       </c>
@@ -31583,7 +31591,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>55</v>
       </c>
@@ -31627,7 +31635,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>58</v>
       </c>
@@ -31671,7 +31679,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>114</v>
       </c>
@@ -31715,7 +31723,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>132</v>
       </c>
@@ -31759,7 +31767,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>142</v>
       </c>
@@ -31803,7 +31811,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>148</v>
       </c>
@@ -31847,7 +31855,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>200</v>
       </c>
@@ -31891,7 +31899,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>208</v>
       </c>
@@ -31935,7 +31943,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>209</v>
       </c>
@@ -31979,7 +31987,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>219</v>
       </c>
@@ -32023,7 +32031,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>220</v>
       </c>
@@ -32067,7 +32075,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>249</v>
       </c>
@@ -32111,7 +32119,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>263</v>
       </c>
@@ -32155,7 +32163,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>281</v>
       </c>
@@ -32199,7 +32207,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>324</v>
       </c>
@@ -32243,7 +32251,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>349</v>
       </c>
@@ -32287,7 +32295,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>368</v>
       </c>
@@ -32331,7 +32339,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>376</v>
       </c>
@@ -32375,7 +32383,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>406</v>
       </c>
@@ -32419,7 +32427,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>416</v>
       </c>
@@ -32463,7 +32471,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>464</v>
       </c>
@@ -32507,7 +32515,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>469</v>
       </c>
@@ -32551,7 +32559,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>483</v>
       </c>
@@ -32595,7 +32603,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>493</v>
       </c>
@@ -32639,7 +32647,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>495</v>
       </c>
@@ -32683,7 +32691,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>500</v>
       </c>
@@ -32725,7 +32733,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>501</v>
       </c>
@@ -32767,7 +32775,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>504</v>
       </c>
@@ -32809,7 +32817,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>568</v>
       </c>
@@ -32851,7 +32859,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>574</v>
       </c>
@@ -32893,7 +32901,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>597</v>
       </c>
@@ -32935,7 +32943,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>616</v>
       </c>
@@ -32977,7 +32985,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>617</v>
       </c>
@@ -33019,7 +33027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>633</v>
       </c>
@@ -33061,7 +33069,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>680</v>
       </c>
@@ -33103,7 +33111,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>703</v>
       </c>
@@ -33145,7 +33153,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>749</v>
       </c>
@@ -33187,7 +33195,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>782</v>
       </c>
@@ -33229,7 +33237,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>785</v>
       </c>
@@ -33271,7 +33279,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>790</v>
       </c>
@@ -33313,7 +33321,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>793</v>
       </c>
@@ -33355,7 +33363,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>796</v>
       </c>
@@ -33397,7 +33405,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>799</v>
       </c>
@@ -33439,7 +33447,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>802</v>
       </c>
@@ -33481,7 +33489,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>805</v>
       </c>
@@ -33523,7 +33531,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>808</v>
       </c>
@@ -33565,7 +33573,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>809</v>
       </c>
@@ -33607,7 +33615,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>834</v>
       </c>
@@ -33649,7 +33657,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>836</v>
       </c>
@@ -33691,7 +33699,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>839</v>
       </c>
@@ -33733,7 +33741,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>840</v>
       </c>
@@ -33775,7 +33783,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>841</v>
       </c>
@@ -33817,7 +33825,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>843</v>
       </c>
@@ -33859,7 +33867,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>844</v>
       </c>
@@ -33901,7 +33909,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>845</v>
       </c>
@@ -33943,7 +33951,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>856</v>
       </c>
@@ -33985,7 +33993,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>867</v>
       </c>
@@ -34027,7 +34035,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>880</v>
       </c>
@@ -34069,7 +34077,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>886</v>
       </c>
@@ -34111,7 +34119,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>889</v>
       </c>
@@ -34153,7 +34161,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>892</v>
       </c>
@@ -34195,7 +34203,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>904</v>
       </c>
@@ -34237,7 +34245,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>906</v>
       </c>
@@ -34279,7 +34287,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>907</v>
       </c>
@@ -34321,7 +34329,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>914</v>
       </c>
@@ -34363,7 +34371,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>923</v>
       </c>
@@ -34405,7 +34413,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>925</v>
       </c>
@@ -34447,7 +34455,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>926</v>
       </c>
@@ -34489,7 +34497,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>928</v>
       </c>
@@ -34531,7 +34539,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>929</v>
       </c>
@@ -34573,7 +34581,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>930</v>
       </c>
@@ -34615,7 +34623,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>935</v>
       </c>
@@ -34657,7 +34665,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>948</v>
       </c>
@@ -34699,7 +34707,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>949</v>
       </c>
@@ -34741,7 +34749,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>953</v>
       </c>
@@ -34783,7 +34791,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>955</v>
       </c>
@@ -34825,7 +34833,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>961</v>
       </c>
@@ -34867,7 +34875,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>131</v>
       </c>
@@ -34909,7 +34917,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>140</v>
       </c>
@@ -34951,7 +34959,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>143</v>
       </c>
@@ -34993,7 +35001,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>146</v>
       </c>
@@ -35035,7 +35043,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>147</v>
       </c>
@@ -35077,7 +35085,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>152</v>
       </c>
@@ -35119,7 +35127,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>154</v>
       </c>
@@ -35161,7 +35169,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>159</v>
       </c>
@@ -35203,7 +35211,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>162</v>
       </c>
@@ -35245,7 +35253,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>172</v>
       </c>
@@ -35287,7 +35295,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>173</v>
       </c>
@@ -35329,7 +35337,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>174</v>
       </c>
@@ -35371,7 +35379,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>177</v>
       </c>
@@ -35413,7 +35421,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>178</v>
       </c>
@@ -35455,7 +35463,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>179</v>
       </c>
@@ -35497,7 +35505,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>185</v>
       </c>
@@ -35539,7 +35547,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>187</v>
       </c>
@@ -35581,7 +35589,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>189</v>
       </c>
@@ -35623,7 +35631,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>190</v>
       </c>
@@ -35665,7 +35673,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>192</v>
       </c>
@@ -35707,7 +35715,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>193</v>
       </c>
@@ -35749,7 +35757,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>194</v>
       </c>
@@ -35791,7 +35799,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>198</v>
       </c>
@@ -35833,7 +35841,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>204</v>
       </c>
@@ -35875,7 +35883,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>207</v>
       </c>
@@ -35917,7 +35925,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>214</v>
       </c>
@@ -35959,7 +35967,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>216</v>
       </c>
@@ -36001,7 +36009,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>217</v>
       </c>
@@ -36043,7 +36051,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>218</v>
       </c>
@@ -36085,7 +36093,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>222</v>
       </c>
@@ -36127,7 +36135,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>225</v>
       </c>
@@ -36169,7 +36177,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>227</v>
       </c>
@@ -36211,7 +36219,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>231</v>
       </c>
@@ -36253,7 +36261,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>235</v>
       </c>
@@ -36295,7 +36303,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>237</v>
       </c>
@@ -36337,7 +36345,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>239</v>
       </c>
@@ -36379,7 +36387,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>248</v>
       </c>
@@ -36421,7 +36429,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>251</v>
       </c>
@@ -36463,7 +36471,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>252</v>
       </c>
@@ -36505,7 +36513,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>1741</v>
       </c>
@@ -36547,7 +36555,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>1744</v>
       </c>
@@ -36589,7 +36597,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>1752</v>
       </c>
@@ -36631,7 +36639,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>1767</v>
       </c>
@@ -36673,7 +36681,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>1769</v>
       </c>
@@ -36715,7 +36723,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>1773</v>
       </c>
@@ -36757,7 +36765,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>1774</v>
       </c>
@@ -36799,7 +36807,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>1790</v>
       </c>
@@ -36841,7 +36849,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>1798</v>
       </c>
@@ -36883,7 +36891,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>1801</v>
       </c>
@@ -36925,7 +36933,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>1820</v>
       </c>
@@ -36967,7 +36975,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>1822</v>
       </c>
@@ -37009,7 +37017,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>1834</v>
       </c>
@@ -37051,7 +37059,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>1836</v>
       </c>
@@ -37093,7 +37101,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>1839</v>
       </c>
@@ -37135,7 +37143,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>1850</v>
       </c>
@@ -37177,7 +37185,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>1870</v>
       </c>
@@ -37219,7 +37227,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>1872</v>
       </c>
@@ -37261,7 +37269,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>986</v>
       </c>
@@ -37303,7 +37311,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>1357</v>
       </c>
@@ -37345,7 +37353,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>1372</v>
       </c>
@@ -37387,7 +37395,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>1393</v>
       </c>
@@ -37429,7 +37437,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>1408</v>
       </c>
@@ -37471,7 +37479,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>1410</v>
       </c>
@@ -37513,7 +37521,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>1433</v>
       </c>
@@ -37555,7 +37563,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>1437</v>
       </c>
@@ -37597,7 +37605,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>1448</v>
       </c>
@@ -37639,7 +37647,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>1452</v>
       </c>
@@ -37681,7 +37689,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>1458</v>
       </c>
@@ -37723,7 +37731,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>1470</v>
       </c>
@@ -37765,7 +37773,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>1473</v>
       </c>
@@ -37807,7 +37815,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>1485</v>
       </c>
@@ -37849,7 +37857,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>1487</v>
       </c>
@@ -37891,7 +37899,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>1502</v>
       </c>
@@ -37933,7 +37941,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>1513</v>
       </c>
@@ -37975,7 +37983,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>1514</v>
       </c>
@@ -38017,7 +38025,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>1524</v>
       </c>
@@ -38059,7 +38067,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>1544</v>
       </c>
@@ -38101,7 +38109,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>1549</v>
       </c>
@@ -38143,7 +38151,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>1553</v>
       </c>
@@ -38185,7 +38193,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>1568</v>
       </c>
@@ -38227,7 +38235,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>1572</v>
       </c>
@@ -38269,7 +38277,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>1579</v>
       </c>
@@ -38311,7 +38319,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>1584</v>
       </c>
@@ -38353,7 +38361,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>1600</v>
       </c>
@@ -38395,7 +38403,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>1616</v>
       </c>
@@ -38437,7 +38445,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>1675</v>
       </c>
@@ -38479,7 +38487,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>1687</v>
       </c>
@@ -38521,7 +38529,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>1715</v>
       </c>
@@ -38563,7 +38571,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>1717</v>
       </c>
@@ -38605,7 +38613,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>1731</v>
       </c>
@@ -38647,7 +38655,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>1759</v>
       </c>
@@ -38689,7 +38697,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>1786</v>
       </c>
@@ -38731,7 +38739,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>1788</v>
       </c>
@@ -38773,7 +38781,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>1797</v>
       </c>
@@ -38815,7 +38823,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>1835</v>
       </c>
@@ -38857,7 +38865,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>1845</v>
       </c>
@@ -38899,7 +38907,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>1853</v>
       </c>
@@ -38941,7 +38949,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>1868</v>
       </c>
@@ -38983,7 +38991,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>1699</v>
       </c>
@@ -39025,7 +39033,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>1723</v>
       </c>
@@ -39067,7 +39075,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>1736</v>
       </c>
@@ -39109,7 +39117,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>1784</v>
       </c>
@@ -39151,7 +39159,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>1824</v>
       </c>
@@ -39193,7 +39201,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>1412</v>
       </c>
@@ -39235,7 +39243,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>1440</v>
       </c>
@@ -39277,7 +39285,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>1466</v>
       </c>
@@ -39319,7 +39327,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>1486</v>
       </c>
@@ -39361,7 +39369,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>1523</v>
       </c>
@@ -39403,7 +39411,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>1539</v>
       </c>
@@ -39445,7 +39453,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>1543</v>
       </c>
@@ -39487,7 +39495,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>1588</v>
       </c>
@@ -39529,7 +39537,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>1617</v>
       </c>
@@ -39571,7 +39579,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>1634</v>
       </c>
@@ -39613,7 +39621,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>1743</v>
       </c>
@@ -39655,7 +39663,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>1746</v>
       </c>
@@ -39697,7 +39705,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>1777</v>
       </c>
@@ -39739,7 +39747,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>392</v>
       </c>
@@ -39781,7 +39789,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>393</v>
       </c>
@@ -39823,7 +39831,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>405</v>
       </c>
@@ -39865,7 +39873,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>407</v>
       </c>
@@ -39907,7 +39915,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>409</v>
       </c>
@@ -39949,7 +39957,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>412</v>
       </c>
@@ -39991,7 +39999,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>413</v>
       </c>
@@ -40033,7 +40041,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>418</v>
       </c>
@@ -40075,7 +40083,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>420</v>
       </c>
@@ -40117,7 +40125,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>424</v>
       </c>
@@ -40159,7 +40167,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>426</v>
       </c>
@@ -40201,7 +40209,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>427</v>
       </c>
@@ -40243,7 +40251,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>428</v>
       </c>
@@ -40285,7 +40293,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>430</v>
       </c>
@@ -40327,7 +40335,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>442</v>
       </c>
@@ -40369,7 +40377,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>446</v>
       </c>
@@ -40411,7 +40419,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>449</v>
       </c>
@@ -40453,7 +40461,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>454</v>
       </c>
@@ -40495,7 +40503,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>458</v>
       </c>
@@ -40537,7 +40545,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>467</v>
       </c>
@@ -40579,7 +40587,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>474</v>
       </c>
@@ -40621,7 +40629,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>476</v>
       </c>
@@ -40663,7 +40671,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>477</v>
       </c>
@@ -40705,7 +40713,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>479</v>
       </c>
@@ -40747,7 +40755,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>486</v>
       </c>
@@ -40789,7 +40797,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>496</v>
       </c>
@@ -40831,7 +40839,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>502</v>
       </c>
@@ -40873,7 +40881,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>509</v>
       </c>
@@ -40915,7 +40923,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>519</v>
       </c>
@@ -40957,7 +40965,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>521</v>
       </c>
@@ -40999,7 +41007,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>527</v>
       </c>
@@ -41041,7 +41049,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>529</v>
       </c>
@@ -41083,7 +41091,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>535</v>
       </c>
@@ -41125,7 +41133,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>539</v>
       </c>
@@ -41167,7 +41175,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>541</v>
       </c>
@@ -41209,7 +41217,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>544</v>
       </c>
@@ -41251,7 +41259,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>547</v>
       </c>
@@ -41293,7 +41301,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>550</v>
       </c>
@@ -41335,7 +41343,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>556</v>
       </c>
@@ -41377,7 +41385,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>271</v>
       </c>
@@ -41419,7 +41427,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>287</v>
       </c>
@@ -41461,7 +41469,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>288</v>
       </c>
@@ -41503,7 +41511,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>289</v>
       </c>
@@ -41545,7 +41553,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>290</v>
       </c>
@@ -41587,7 +41595,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>296</v>
       </c>
@@ -41629,7 +41637,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>297</v>
       </c>
@@ -41671,7 +41679,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>315</v>
       </c>
@@ -41713,7 +41721,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>317</v>
       </c>
@@ -41755,7 +41763,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>347</v>
       </c>
@@ -41797,7 +41805,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>351</v>
       </c>
@@ -41839,7 +41847,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>359</v>
       </c>
@@ -41881,7 +41889,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="686" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>362</v>
       </c>
@@ -41923,7 +41931,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="687" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>377</v>
       </c>
@@ -41965,7 +41973,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>387</v>
       </c>
@@ -42007,7 +42015,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="689" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>395</v>
       </c>
@@ -42049,7 +42057,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="690" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>398</v>
       </c>
@@ -42091,7 +42099,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="691" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>402</v>
       </c>
@@ -42133,7 +42141,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="692" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>411</v>
       </c>
@@ -42175,7 +42183,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="693" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>415</v>
       </c>
@@ -42217,7 +42225,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="694" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>429</v>
       </c>
@@ -42259,7 +42267,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="695" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>431</v>
       </c>
@@ -42301,7 +42309,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="696" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>443</v>
       </c>
@@ -42343,7 +42351,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="697" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>447</v>
       </c>
@@ -42385,7 +42393,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="698" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>459</v>
       </c>
@@ -42427,7 +42435,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="699" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>463</v>
       </c>
@@ -42469,7 +42477,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="700" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>468</v>
       </c>
@@ -42511,7 +42519,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="701" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>471</v>
       </c>
@@ -42553,7 +42561,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="702" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>489</v>
       </c>
@@ -42595,7 +42603,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="703" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>492</v>
       </c>
@@ -42637,7 +42645,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="704" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>494</v>
       </c>
@@ -42679,7 +42687,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="705" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>505</v>
       </c>
@@ -42721,7 +42729,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="706" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>513</v>
       </c>
@@ -42763,7 +42771,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="707" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>522</v>
       </c>
@@ -42805,7 +42813,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>526</v>
       </c>
@@ -42847,7 +42855,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="709" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>536</v>
       </c>
@@ -42889,7 +42897,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="710" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>546</v>
       </c>
@@ -42931,7 +42939,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="711" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>549</v>
       </c>
@@ -42973,7 +42981,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="712" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>553</v>
       </c>
@@ -43015,7 +43023,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="713" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>1074</v>
       </c>
@@ -43057,7 +43065,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="714" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>1080</v>
       </c>
@@ -43099,7 +43107,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="715" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>1086</v>
       </c>
@@ -43141,7 +43149,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="716" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>1092</v>
       </c>
@@ -43183,7 +43191,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="717" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>1110</v>
       </c>
@@ -43225,7 +43233,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="718" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>1200</v>
       </c>
@@ -43267,7 +43275,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="719" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>1285</v>
       </c>
@@ -43309,7 +43317,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="720" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>1313</v>
       </c>
@@ -43351,7 +43359,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="721" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>1353</v>
       </c>
@@ -43393,7 +43401,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="722" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>1356</v>
       </c>
@@ -43435,7 +43443,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="723" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>1359</v>
       </c>
@@ -43477,7 +43485,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="724" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>1364</v>
       </c>
@@ -43519,7 +43527,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="725" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>942</v>
       </c>
@@ -43561,7 +43569,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="726" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>1378</v>
       </c>
@@ -43603,7 +43611,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="727" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>1394</v>
       </c>
@@ -43645,7 +43653,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="728" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>1453</v>
       </c>
@@ -43687,7 +43695,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="729" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>1455</v>
       </c>
@@ -43729,7 +43737,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="730" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>1464</v>
       </c>
@@ -43771,7 +43779,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="731" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>1506</v>
       </c>
@@ -43813,7 +43821,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="732" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>1589</v>
       </c>
@@ -43855,7 +43863,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="733" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>1682</v>
       </c>
@@ -43897,7 +43905,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="734" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>1691</v>
       </c>
@@ -43939,7 +43947,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="735" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>1702</v>
       </c>
@@ -43981,7 +43989,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="736" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>1710</v>
       </c>
@@ -44023,7 +44031,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="737" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>1749</v>
       </c>
@@ -44065,7 +44073,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="738" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>1760</v>
       </c>
@@ -44107,7 +44115,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="739" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>1770</v>
       </c>
@@ -44149,7 +44157,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="740" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>1792</v>
       </c>
@@ -44191,7 +44199,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="741" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>1808</v>
       </c>
@@ -44233,7 +44241,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="742" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>1816</v>
       </c>
@@ -44275,7 +44283,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="743" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>1819</v>
       </c>
@@ -44317,7 +44325,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="744" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>1825</v>
       </c>
@@ -44359,7 +44367,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="745" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>1856</v>
       </c>
@@ -44401,7 +44409,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="746" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>1864</v>
       </c>
@@ -44443,7 +44451,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="747" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>1869</v>
       </c>
@@ -44485,7 +44493,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="748" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>1876</v>
       </c>
@@ -44527,7 +44535,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="749" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>754</v>
       </c>
@@ -44569,7 +44577,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="750" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>759</v>
       </c>
@@ -44611,7 +44619,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="751" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>760</v>
       </c>
@@ -44653,7 +44661,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="752" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>835</v>
       </c>
@@ -44695,7 +44703,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="753" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>883</v>
       </c>
@@ -44737,7 +44745,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="754" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>896</v>
       </c>
@@ -44779,7 +44787,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="755" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>899</v>
       </c>
@@ -44821,7 +44829,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="756" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>900</v>
       </c>
@@ -44863,7 +44871,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="757" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>915</v>
       </c>
@@ -44905,7 +44913,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="758" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>943</v>
       </c>
@@ -44947,7 +44955,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="759" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>946</v>
       </c>
@@ -44989,7 +44997,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="760" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>959</v>
       </c>
@@ -45031,7 +45039,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="761" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>962</v>
       </c>
@@ -45073,7 +45081,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="762" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>964</v>
       </c>
@@ -45115,7 +45123,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="763" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>967</v>
       </c>
@@ -45157,7 +45165,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="764" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>983</v>
       </c>
@@ -45199,7 +45207,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="765" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>1015</v>
       </c>
@@ -45241,7 +45249,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="766" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>1031</v>
       </c>
@@ -45283,7 +45291,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="767" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>1033</v>
       </c>
@@ -45325,7 +45333,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="768" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>1060</v>
       </c>
@@ -45367,7 +45375,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="769" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>1087</v>
       </c>
@@ -45409,7 +45417,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>1114</v>
       </c>
@@ -45451,7 +45459,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>1122</v>
       </c>
@@ -45493,7 +45501,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>1128</v>
       </c>
@@ -45535,7 +45543,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>1129</v>
       </c>
@@ -45577,7 +45585,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="774" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>1155</v>
       </c>
@@ -45619,7 +45627,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>1156</v>
       </c>
@@ -45661,7 +45669,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>1171</v>
       </c>
@@ -45703,7 +45711,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>1221</v>
       </c>
@@ -45745,7 +45753,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>1235</v>
       </c>
@@ -45787,7 +45795,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>1250</v>
       </c>
@@ -45829,7 +45837,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>1256</v>
       </c>
@@ -45871,7 +45879,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="781" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>1267</v>
       </c>
@@ -45913,7 +45921,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="782" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>1270</v>
       </c>
@@ -45955,7 +45963,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="783" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>1278</v>
       </c>
@@ -45997,7 +46005,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="784" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>1298</v>
       </c>
@@ -46039,7 +46047,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>1303</v>
       </c>
@@ -46081,7 +46089,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="786" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>1315</v>
       </c>
@@ -46123,7 +46131,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="787" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>1335</v>
       </c>
@@ -46165,7 +46173,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="788" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>1406</v>
       </c>
@@ -46207,7 +46215,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="789" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>1180</v>
       </c>
@@ -46249,7 +46257,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="790" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>1184</v>
       </c>
@@ -46291,7 +46299,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="791" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>1190</v>
       </c>
@@ -46333,7 +46341,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="792" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>1205</v>
       </c>
@@ -46375,7 +46383,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="793" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>1208</v>
       </c>
@@ -46417,7 +46425,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="794" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>1211</v>
       </c>
@@ -46459,7 +46467,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="795" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>1212</v>
       </c>
@@ -46501,7 +46509,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>1241</v>
       </c>
@@ -46543,7 +46551,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>1251</v>
       </c>
@@ -46585,7 +46593,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="798" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>1271</v>
       </c>
@@ -46627,7 +46635,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="799" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>1272</v>
       </c>
@@ -46669,7 +46677,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="800" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>1273</v>
       </c>
@@ -46711,7 +46719,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="801" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>1279</v>
       </c>
@@ -46753,7 +46761,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="802" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>1281</v>
       </c>
@@ -46795,7 +46803,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="803" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>1288</v>
       </c>
@@ -46837,7 +46845,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="804" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>1289</v>
       </c>
@@ -46879,7 +46887,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="805" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>1304</v>
       </c>
@@ -46921,7 +46929,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="806" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>1306</v>
       </c>
@@ -46963,7 +46971,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="807" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>1310</v>
       </c>
@@ -47005,7 +47013,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="808" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>1319</v>
       </c>
@@ -47047,7 +47055,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="809" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>1321</v>
       </c>
@@ -47089,7 +47097,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="810" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>1323</v>
       </c>
@@ -47131,7 +47139,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="811" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>1361</v>
       </c>
@@ -47173,7 +47181,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="812" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>1380</v>
       </c>
@@ -47215,7 +47223,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="813" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>1384</v>
       </c>
@@ -47257,7 +47265,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="814" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>1390</v>
       </c>
@@ -47299,7 +47307,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="815" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>1404</v>
       </c>
@@ -47341,7 +47349,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="816" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>1411</v>
       </c>
@@ -47383,7 +47391,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="817" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>1413</v>
       </c>
@@ -47425,7 +47433,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="818" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>1419</v>
       </c>
@@ -47467,7 +47475,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="819" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>1422</v>
       </c>
@@ -47509,7 +47517,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="820" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>1424</v>
       </c>
@@ -47551,7 +47559,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="821" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>1426</v>
       </c>
@@ -47593,7 +47601,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="822" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>1428</v>
       </c>
@@ -47635,7 +47643,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="823" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>1429</v>
       </c>
@@ -47677,7 +47685,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="824" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>1436</v>
       </c>
@@ -47719,7 +47727,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="825" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>1450</v>
       </c>
@@ -47761,7 +47769,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="826" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>1454</v>
       </c>
@@ -47803,7 +47811,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="827" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>1461</v>
       </c>
@@ -47845,7 +47853,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="828" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>1467</v>
       </c>
@@ -47887,7 +47895,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="829" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>1293</v>
       </c>
@@ -47929,7 +47937,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="830" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>1295</v>
       </c>
@@ -47971,7 +47979,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="831" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>1300</v>
       </c>
@@ -48013,7 +48021,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="832" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>1309</v>
       </c>
@@ -48055,7 +48063,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="833" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>1324</v>
       </c>
@@ -48097,7 +48105,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="834" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>1325</v>
       </c>
@@ -48139,7 +48147,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="835" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>1330</v>
       </c>
@@ -48181,7 +48189,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="836" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>1347</v>
       </c>
@@ -48223,7 +48231,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="837" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>1354</v>
       </c>
@@ -48265,7 +48273,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="838" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>1360</v>
       </c>
@@ -48307,7 +48315,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="839" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>1387</v>
       </c>
@@ -48349,7 +48357,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="840" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>1389</v>
       </c>
@@ -48391,7 +48399,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="841" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>1421</v>
       </c>
@@ -48433,7 +48441,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="842" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>1438</v>
       </c>
@@ -48475,7 +48483,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="843" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>1442</v>
       </c>
@@ -48517,7 +48525,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="844" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>1444</v>
       </c>
@@ -48559,7 +48567,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="845" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>1457</v>
       </c>
@@ -48601,7 +48609,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="846" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>1460</v>
       </c>
@@ -48643,7 +48651,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="847" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>1480</v>
       </c>
@@ -48685,7 +48693,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="848" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>1504</v>
       </c>
@@ -48727,7 +48735,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="849" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>1510</v>
       </c>
@@ -48769,7 +48777,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="850" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>1534</v>
       </c>
@@ -48811,7 +48819,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="851" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>1535</v>
       </c>
@@ -48853,7 +48861,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="852" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>1536</v>
       </c>
@@ -48895,7 +48903,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="853" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>1542</v>
       </c>
@@ -48937,7 +48945,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="854" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>1545</v>
       </c>
@@ -48979,7 +48987,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="855" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>1562</v>
       </c>
@@ -49021,7 +49029,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="856" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>1566</v>
       </c>
@@ -49063,7 +49071,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="857" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>1571</v>
       </c>
@@ -49105,7 +49113,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="858" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>1574</v>
       </c>
@@ -49147,7 +49155,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="859" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>1582</v>
       </c>
@@ -49189,7 +49197,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="860" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>1586</v>
       </c>
@@ -49231,7 +49239,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="861" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>1625</v>
       </c>
@@ -49273,7 +49281,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="862" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>1665</v>
       </c>
@@ -49315,7 +49323,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="863" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>1666</v>
       </c>
@@ -49357,7 +49365,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="864" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>1669</v>
       </c>
@@ -49399,7 +49407,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="865" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>1676</v>
       </c>
@@ -49441,7 +49449,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="866" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>1686</v>
       </c>
@@ -49483,7 +49491,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="867" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>1707</v>
       </c>
@@ -49525,7 +49533,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="868" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>1735</v>
       </c>
@@ -49567,7 +49575,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="869" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>558</v>
       </c>
@@ -49609,7 +49617,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="870" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>575</v>
       </c>
@@ -49651,7 +49659,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="871" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>581</v>
       </c>
@@ -49693,7 +49701,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="872" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>605</v>
       </c>
@@ -49735,7 +49743,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="873" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>611</v>
       </c>
@@ -49777,7 +49785,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="874" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>618</v>
       </c>
@@ -49819,7 +49827,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="875" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>620</v>
       </c>
@@ -49861,7 +49869,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="876" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>626</v>
       </c>
@@ -49903,7 +49911,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="877" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>629</v>
       </c>
@@ -49945,7 +49953,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="878" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>639</v>
       </c>
@@ -49987,7 +49995,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="879" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>643</v>
       </c>
@@ -50029,7 +50037,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="880" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>644</v>
       </c>
@@ -50071,7 +50079,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="881" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>647</v>
       </c>
@@ -50113,7 +50121,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="882" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>662</v>
       </c>
@@ -50155,7 +50163,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="883" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>666</v>
       </c>
@@ -50197,7 +50205,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="884" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>669</v>
       </c>
@@ -50239,7 +50247,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="885" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>670</v>
       </c>
@@ -50281,7 +50289,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="886" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>676</v>
       </c>
@@ -50323,7 +50331,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="887" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>678</v>
       </c>
@@ -50365,7 +50373,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="888" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>699</v>
       </c>
@@ -50407,7 +50415,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="889" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>702</v>
       </c>
@@ -50449,7 +50457,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="890" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>722</v>
       </c>
@@ -50491,7 +50499,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="891" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>738</v>
       </c>
@@ -50533,7 +50541,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="892" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>742</v>
       </c>
@@ -50575,7 +50583,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="893" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>744</v>
       </c>
@@ -50617,7 +50625,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="894" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>747</v>
       </c>
@@ -50659,7 +50667,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="895" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>764</v>
       </c>
@@ -50701,7 +50709,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="896" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>774</v>
       </c>
@@ -50743,7 +50751,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="897" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>777</v>
       </c>
@@ -50785,7 +50793,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="898" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>778</v>
       </c>
@@ -50827,7 +50835,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="899" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>779</v>
       </c>
@@ -50869,7 +50877,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="900" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>786</v>
       </c>
@@ -50911,7 +50919,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="901" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>795</v>
       </c>
@@ -50953,7 +50961,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="902" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>797</v>
       </c>
@@ -50995,7 +51003,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="903" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>798</v>
       </c>
@@ -51037,7 +51045,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="904" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>804</v>
       </c>
@@ -51079,7 +51087,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="905" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>831</v>
       </c>
@@ -51121,7 +51129,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="906" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>847</v>
       </c>
@@ -51163,7 +51171,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="907" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>853</v>
       </c>
@@ -51205,7 +51213,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="908" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>1375</v>
       </c>
@@ -51247,7 +51255,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="909" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>8</v>
       </c>
@@ -51289,7 +51297,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="910" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>112</v>
       </c>
@@ -51331,7 +51339,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="911" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>229</v>
       </c>
@@ -51373,7 +51381,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="912" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>243</v>
       </c>
@@ -51415,7 +51423,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="913" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>247</v>
       </c>
@@ -51457,7 +51465,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="914" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>265</v>
       </c>
@@ -51499,7 +51507,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="915" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>327</v>
       </c>
@@ -51541,7 +51549,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="916" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>338</v>
       </c>
@@ -51583,7 +51591,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="917" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>367</v>
       </c>
@@ -51625,7 +51633,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="918" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>403</v>
       </c>
@@ -51695,10 +51703,10 @@
       <c r="I919" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J919" s="20">
+      <c r="J919" s="19">
         <v>45503</v>
       </c>
-      <c r="K919" s="21" t="s">
+      <c r="K919" s="8" t="s">
         <v>3814</v>
       </c>
       <c r="L919" s="9"/>
@@ -62846,7 +62854,7 @@
       <c r="B1185" t="s">
         <v>1277</v>
       </c>
-      <c r="C1185" s="14" t="s">
+      <c r="C1185" s="28" t="s">
         <v>2510</v>
       </c>
       <c r="D1185" s="1" t="s">
@@ -64400,7 +64408,7 @@
       <c r="B1222" t="s">
         <v>1312</v>
       </c>
-      <c r="C1222" s="15" t="s">
+      <c r="C1222" s="14" t="s">
         <v>2545</v>
       </c>
       <c r="D1222" s="1" t="s">
@@ -65324,7 +65332,7 @@
       <c r="B1244" t="s">
         <v>1334</v>
       </c>
-      <c r="C1244" s="16" t="s">
+      <c r="C1244" s="15" t="s">
         <v>2567</v>
       </c>
       <c r="D1244" s="1" t="s">
@@ -65366,7 +65374,7 @@
       <c r="B1245" t="s">
         <v>1335</v>
       </c>
-      <c r="C1245" s="15" t="s">
+      <c r="C1245" s="14" t="s">
         <v>2568</v>
       </c>
       <c r="D1245" s="1" t="s">
@@ -65450,7 +65458,7 @@
       <c r="B1247" t="s">
         <v>1337</v>
       </c>
-      <c r="C1247" s="17" t="s">
+      <c r="C1247" s="16" t="s">
         <v>2570</v>
       </c>
       <c r="D1247" s="1" t="s">
@@ -65492,7 +65500,7 @@
       <c r="B1248" t="s">
         <v>1338</v>
       </c>
-      <c r="C1248" s="15" t="s">
+      <c r="C1248" s="14" t="s">
         <v>2571</v>
       </c>
       <c r="D1248" s="1" t="s">
@@ -65534,7 +65542,7 @@
       <c r="B1249" t="s">
         <v>972</v>
       </c>
-      <c r="C1249" s="15" t="s">
+      <c r="C1249" s="14" t="s">
         <v>2205</v>
       </c>
       <c r="D1249" s="1" t="s">
@@ -65576,7 +65584,7 @@
       <c r="B1250" t="s">
         <v>1339</v>
       </c>
-      <c r="C1250" s="18" t="s">
+      <c r="C1250" s="17" t="s">
         <v>2572</v>
       </c>
       <c r="D1250" s="1" t="s">
@@ -65618,7 +65626,7 @@
       <c r="B1251" t="s">
         <v>1340</v>
       </c>
-      <c r="C1251" s="15" t="s">
+      <c r="C1251" s="14" t="s">
         <v>2573</v>
       </c>
       <c r="D1251" s="1" t="s">
@@ -65660,7 +65668,7 @@
       <c r="B1252" t="s">
         <v>1341</v>
       </c>
-      <c r="C1252" s="19" t="s">
+      <c r="C1252" s="18" t="s">
         <v>2574</v>
       </c>
       <c r="D1252" s="1" t="s">
@@ -65702,7 +65710,7 @@
       <c r="B1253" t="s">
         <v>1342</v>
       </c>
-      <c r="C1253" s="27" t="s">
+      <c r="C1253" s="23" t="s">
         <v>2575</v>
       </c>
       <c r="D1253" s="1" t="s">
@@ -65744,7 +65752,7 @@
       <c r="B1254" t="s">
         <v>1343</v>
       </c>
-      <c r="C1254" s="28" t="s">
+      <c r="C1254" s="24" t="s">
         <v>2576</v>
       </c>
       <c r="D1254" s="1" t="s">
@@ -65786,7 +65794,7 @@
       <c r="B1255" t="s">
         <v>2577</v>
       </c>
-      <c r="C1255" s="29" t="s">
+      <c r="C1255" s="25" t="s">
         <v>80</v>
       </c>
       <c r="D1255" s="1" t="s">
@@ -65821,7 +65829,7 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="1256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1256" s="1"/>
       <c r="E1256" s="1"/>
       <c r="H1256" s="2"/>
@@ -65832,7 +65840,7 @@
       <c r="M1256" s="8"/>
       <c r="N1256" s="8"/>
     </row>
-    <row r="1257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1257" s="1"/>
       <c r="E1257" s="1"/>
       <c r="H1257" s="2"/>
@@ -65843,7 +65851,7 @@
       <c r="M1257" s="8"/>
       <c r="N1257" s="8"/>
     </row>
-    <row r="1258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1258" s="1"/>
       <c r="E1258" s="1"/>
       <c r="H1258" s="2"/>
@@ -65854,7 +65862,7 @@
       <c r="M1258" s="8"/>
       <c r="N1258" s="8"/>
     </row>
-    <row r="1259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1259" s="1"/>
       <c r="E1259" s="1"/>
       <c r="H1259" s="2"/>
@@ -65865,7 +65873,7 @@
       <c r="M1259" s="8"/>
       <c r="N1259" s="8"/>
     </row>
-    <row r="1260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1260" s="1"/>
       <c r="E1260" s="1"/>
       <c r="H1260" s="2"/>
@@ -65876,7 +65884,7 @@
       <c r="M1260" s="8"/>
       <c r="N1260" s="8"/>
     </row>
-    <row r="1261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1261" s="1"/>
       <c r="E1261" s="1"/>
       <c r="H1261" s="2"/>
@@ -65887,7 +65895,7 @@
       <c r="M1261" s="8"/>
       <c r="N1261" s="8"/>
     </row>
-    <row r="1262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1262" s="1"/>
       <c r="E1262" s="1"/>
       <c r="H1262" s="2"/>
@@ -65898,7 +65906,7 @@
       <c r="M1262" s="8"/>
       <c r="N1262" s="8"/>
     </row>
-    <row r="1263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1263" s="1"/>
       <c r="E1263" s="1"/>
       <c r="H1263" s="2"/>
@@ -65909,7 +65917,7 @@
       <c r="M1263" s="8"/>
       <c r="N1263" s="8"/>
     </row>
-    <row r="1264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1264" s="1"/>
       <c r="E1264" s="1"/>
       <c r="H1264" s="2"/>
@@ -65920,7 +65928,7 @@
       <c r="M1264" s="8"/>
       <c r="N1264" s="8"/>
     </row>
-    <row r="1265" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1265" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1265" s="1"/>
       <c r="E1265" s="1"/>
       <c r="H1265" s="2"/>
@@ -65931,7 +65939,7 @@
       <c r="M1265" s="8"/>
       <c r="N1265" s="8"/>
     </row>
-    <row r="1266" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1266" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1266" s="1"/>
       <c r="E1266" s="1"/>
       <c r="H1266" s="2"/>
@@ -65942,7 +65950,7 @@
       <c r="M1266" s="8"/>
       <c r="N1266" s="8"/>
     </row>
-    <row r="1267" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1267" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1267" s="1"/>
       <c r="E1267" s="1"/>
       <c r="H1267" s="2"/>
@@ -65953,7 +65961,7 @@
       <c r="M1267" s="8"/>
       <c r="N1267" s="8"/>
     </row>
-    <row r="1268" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1268" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1268" s="1"/>
       <c r="E1268" s="1"/>
       <c r="H1268" s="2"/>
@@ -65964,7 +65972,7 @@
       <c r="M1268" s="8"/>
       <c r="N1268" s="8"/>
     </row>
-    <row r="1269" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1269" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1269" s="1"/>
       <c r="E1269" s="1"/>
       <c r="H1269" s="2"/>
@@ -65975,7 +65983,7 @@
       <c r="M1269" s="8"/>
       <c r="N1269" s="8"/>
     </row>
-    <row r="1270" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1270" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1270" s="1"/>
       <c r="E1270" s="1"/>
       <c r="H1270" s="2"/>
@@ -65986,7 +65994,7 @@
       <c r="M1270" s="8"/>
       <c r="N1270" s="8"/>
     </row>
-    <row r="1271" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1271" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1271" s="1"/>
       <c r="E1271" s="1"/>
       <c r="H1271" s="2"/>
@@ -65997,7 +66005,7 @@
       <c r="M1271" s="8"/>
       <c r="N1271" s="8"/>
     </row>
-    <row r="1272" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1272" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1272" s="1"/>
       <c r="E1272" s="1"/>
       <c r="H1272" s="2"/>
@@ -66008,7 +66016,7 @@
       <c r="M1272" s="8"/>
       <c r="N1272" s="8"/>
     </row>
-    <row r="1273" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1273" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1273" s="1"/>
       <c r="E1273" s="1"/>
       <c r="H1273" s="2"/>
@@ -66019,7 +66027,7 @@
       <c r="M1273" s="8"/>
       <c r="N1273" s="8"/>
     </row>
-    <row r="1274" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1274" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1274" s="1"/>
       <c r="E1274" s="1"/>
       <c r="H1274" s="2"/>
@@ -66030,7 +66038,7 @@
       <c r="M1274" s="8"/>
       <c r="N1274" s="8"/>
     </row>
-    <row r="1275" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1275" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1275" s="1"/>
       <c r="E1275" s="1"/>
       <c r="H1275" s="2"/>
@@ -66041,7 +66049,7 @@
       <c r="M1275" s="8"/>
       <c r="N1275" s="8"/>
     </row>
-    <row r="1276" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1276" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1276" s="1"/>
       <c r="E1276" s="1"/>
       <c r="H1276" s="2"/>
@@ -66052,7 +66060,7 @@
       <c r="M1276" s="8"/>
       <c r="N1276" s="8"/>
     </row>
-    <row r="1277" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1277" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1277" s="1"/>
       <c r="E1277" s="1"/>
       <c r="H1277" s="2"/>
@@ -66063,7 +66071,7 @@
       <c r="M1277" s="8"/>
       <c r="N1277" s="8"/>
     </row>
-    <row r="1278" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1278" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1278" s="1"/>
       <c r="E1278" s="1"/>
       <c r="H1278" s="2"/>
@@ -66074,7 +66082,7 @@
       <c r="M1278" s="8"/>
       <c r="N1278" s="8"/>
     </row>
-    <row r="1279" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1279" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1279" s="1"/>
       <c r="E1279" s="1"/>
       <c r="H1279" s="2"/>
@@ -66085,7 +66093,7 @@
       <c r="M1279" s="8"/>
       <c r="N1279" s="8"/>
     </row>
-    <row r="1280" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1280" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1280" s="1"/>
       <c r="E1280" s="1"/>
       <c r="H1280" s="2"/>
@@ -66096,7 +66104,7 @@
       <c r="M1280" s="8"/>
       <c r="N1280" s="8"/>
     </row>
-    <row r="1281" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1281" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1281" s="1"/>
       <c r="E1281" s="1"/>
       <c r="H1281" s="2"/>
@@ -66107,7 +66115,7 @@
       <c r="M1281" s="8"/>
       <c r="N1281" s="8"/>
     </row>
-    <row r="1282" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1282" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1282" s="1"/>
       <c r="E1282" s="1"/>
       <c r="H1282" s="2"/>
@@ -66118,7 +66126,7 @@
       <c r="M1282" s="8"/>
       <c r="N1282" s="8"/>
     </row>
-    <row r="1283" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1283" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1283" s="1"/>
       <c r="E1283" s="1"/>
       <c r="H1283" s="2"/>
@@ -66129,7 +66137,7 @@
       <c r="M1283" s="8"/>
       <c r="N1283" s="8"/>
     </row>
-    <row r="1284" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1284" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1284" s="1"/>
       <c r="E1284" s="1"/>
       <c r="H1284" s="2"/>
@@ -66140,7 +66148,7 @@
       <c r="M1284" s="8"/>
       <c r="N1284" s="8"/>
     </row>
-    <row r="1285" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1285" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1285" s="1"/>
       <c r="E1285" s="1"/>
       <c r="H1285" s="2"/>
@@ -66151,7 +66159,7 @@
       <c r="M1285" s="8"/>
       <c r="N1285" s="8"/>
     </row>
-    <row r="1286" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1286" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1286" s="1"/>
       <c r="E1286" s="1"/>
       <c r="H1286" s="2"/>
@@ -66162,7 +66170,7 @@
       <c r="M1286" s="8"/>
       <c r="N1286" s="8"/>
     </row>
-    <row r="1287" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1287" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1287" s="1"/>
       <c r="E1287" s="1"/>
       <c r="H1287" s="2"/>
@@ -66173,7 +66181,7 @@
       <c r="M1287" s="8"/>
       <c r="N1287" s="8"/>
     </row>
-    <row r="1288" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1288" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1288" s="1"/>
       <c r="E1288" s="1"/>
       <c r="H1288" s="2"/>
@@ -66184,7 +66192,7 @@
       <c r="M1288" s="8"/>
       <c r="N1288" s="8"/>
     </row>
-    <row r="1289" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1289" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1289" s="1"/>
       <c r="E1289" s="1"/>
       <c r="H1289" s="2"/>
@@ -66195,7 +66203,7 @@
       <c r="M1289" s="8"/>
       <c r="N1289" s="8"/>
     </row>
-    <row r="1290" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1290" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1290" s="1"/>
       <c r="E1290" s="1"/>
       <c r="H1290" s="2"/>
@@ -66206,7 +66214,7 @@
       <c r="M1290" s="8"/>
       <c r="N1290" s="8"/>
     </row>
-    <row r="1291" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1291" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1291" s="1"/>
       <c r="E1291" s="1"/>
       <c r="H1291" s="2"/>
@@ -66217,7 +66225,7 @@
       <c r="M1291" s="8"/>
       <c r="N1291" s="8"/>
     </row>
-    <row r="1292" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1292" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1292" s="1"/>
       <c r="E1292" s="1"/>
       <c r="H1292" s="2"/>
@@ -66228,7 +66236,7 @@
       <c r="M1292" s="8"/>
       <c r="N1292" s="8"/>
     </row>
-    <row r="1293" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1293" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1293" s="1"/>
       <c r="E1293" s="1"/>
       <c r="H1293" s="2"/>
@@ -66239,7 +66247,7 @@
       <c r="M1293" s="8"/>
       <c r="N1293" s="8"/>
     </row>
-    <row r="1294" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1294" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1294" s="1"/>
       <c r="E1294" s="1"/>
       <c r="H1294" s="2"/>
@@ -66250,7 +66258,7 @@
       <c r="M1294" s="8"/>
       <c r="N1294" s="8"/>
     </row>
-    <row r="1295" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1295" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1295" s="1"/>
       <c r="E1295" s="1"/>
       <c r="H1295" s="2"/>
@@ -66261,7 +66269,7 @@
       <c r="M1295" s="8"/>
       <c r="N1295" s="8"/>
     </row>
-    <row r="1296" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1296" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1296" s="1"/>
       <c r="E1296" s="1"/>
       <c r="H1296" s="2"/>
@@ -66272,7 +66280,7 @@
       <c r="M1296" s="8"/>
       <c r="N1296" s="8"/>
     </row>
-    <row r="1297" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1297" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1297" s="1"/>
       <c r="E1297" s="1"/>
       <c r="H1297" s="2"/>
@@ -66283,7 +66291,7 @@
       <c r="M1297" s="8"/>
       <c r="N1297" s="8"/>
     </row>
-    <row r="1298" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1298" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1298" s="1"/>
       <c r="E1298" s="1"/>
       <c r="H1298" s="2"/>
@@ -66294,7 +66302,7 @@
       <c r="M1298" s="8"/>
       <c r="N1298" s="8"/>
     </row>
-    <row r="1299" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1299" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1299" s="1"/>
       <c r="E1299" s="1"/>
       <c r="H1299" s="7"/>
@@ -66305,7 +66313,7 @@
       <c r="M1299" s="8"/>
       <c r="N1299" s="8"/>
     </row>
-    <row r="1300" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1300" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1300" s="1"/>
       <c r="E1300" s="1"/>
       <c r="H1300" s="7"/>
@@ -66316,7 +66324,7 @@
       <c r="M1300" s="8"/>
       <c r="N1300" s="8"/>
     </row>
-    <row r="1301" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1301" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1301" s="1"/>
       <c r="E1301" s="1"/>
       <c r="H1301" s="7"/>
@@ -66327,7 +66335,7 @@
       <c r="M1301" s="8"/>
       <c r="N1301" s="8"/>
     </row>
-    <row r="1302" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1302" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1302" s="1"/>
       <c r="E1302" s="1"/>
       <c r="H1302" s="7"/>
@@ -66338,7 +66346,7 @@
       <c r="M1302" s="8"/>
       <c r="N1302" s="8"/>
     </row>
-    <row r="1303" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1303" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1303" s="1"/>
       <c r="E1303" s="1"/>
       <c r="H1303" s="7"/>
@@ -66349,7 +66357,7 @@
       <c r="M1303" s="8"/>
       <c r="N1303" s="8"/>
     </row>
-    <row r="1304" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1304" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1304" s="1"/>
       <c r="E1304" s="1"/>
       <c r="H1304" s="7"/>
@@ -66360,7 +66368,7 @@
       <c r="M1304" s="8"/>
       <c r="N1304" s="8"/>
     </row>
-    <row r="1305" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1305" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1305" s="1"/>
       <c r="E1305" s="1"/>
       <c r="H1305" s="7"/>
@@ -66371,7 +66379,7 @@
       <c r="M1305" s="8"/>
       <c r="N1305" s="8"/>
     </row>
-    <row r="1306" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1306" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1306" s="1"/>
       <c r="E1306" s="1"/>
       <c r="H1306" s="7"/>
@@ -66382,7 +66390,7 @@
       <c r="M1306" s="8"/>
       <c r="N1306" s="8"/>
     </row>
-    <row r="1307" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1307" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1307" s="1"/>
       <c r="E1307" s="1"/>
       <c r="H1307" s="7"/>
@@ -66393,7 +66401,7 @@
       <c r="M1307" s="8"/>
       <c r="N1307" s="8"/>
     </row>
-    <row r="1308" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1308" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1308" s="1"/>
       <c r="E1308" s="1"/>
       <c r="H1308" s="7"/>
@@ -66404,7 +66412,7 @@
       <c r="M1308" s="8"/>
       <c r="N1308" s="8"/>
     </row>
-    <row r="1309" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1309" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1309" s="1"/>
       <c r="E1309" s="1"/>
       <c r="H1309" s="7"/>
@@ -66415,7 +66423,7 @@
       <c r="M1309" s="8"/>
       <c r="N1309" s="8"/>
     </row>
-    <row r="1310" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1310" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1310" s="1"/>
       <c r="E1310" s="1"/>
       <c r="H1310" s="7"/>
@@ -66426,7 +66434,7 @@
       <c r="M1310" s="8"/>
       <c r="N1310" s="8"/>
     </row>
-    <row r="1311" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1311" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1311" s="1"/>
       <c r="E1311" s="1"/>
       <c r="H1311" s="7"/>
@@ -66437,7 +66445,7 @@
       <c r="M1311" s="8"/>
       <c r="N1311" s="8"/>
     </row>
-    <row r="1312" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1312" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1312" s="1"/>
       <c r="E1312" s="1"/>
       <c r="H1312" s="7"/>
@@ -66448,7 +66456,7 @@
       <c r="M1312" s="8"/>
       <c r="N1312" s="8"/>
     </row>
-    <row r="1313" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1313" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1313" s="1"/>
       <c r="E1313" s="1"/>
       <c r="H1313" s="7"/>
@@ -66459,7 +66467,7 @@
       <c r="M1313" s="8"/>
       <c r="N1313" s="8"/>
     </row>
-    <row r="1314" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1314" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1314" s="1"/>
       <c r="E1314" s="1"/>
       <c r="H1314" s="7"/>
@@ -66470,7 +66478,7 @@
       <c r="M1314" s="8"/>
       <c r="N1314" s="8"/>
     </row>
-    <row r="1315" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1315" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1315" s="1"/>
       <c r="E1315" s="1"/>
       <c r="H1315" s="7"/>
@@ -66481,7 +66489,7 @@
       <c r="M1315" s="8"/>
       <c r="N1315" s="8"/>
     </row>
-    <row r="1316" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1316" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1316" s="1"/>
       <c r="E1316" s="1"/>
       <c r="H1316" s="7"/>
@@ -66492,7 +66500,7 @@
       <c r="M1316" s="8"/>
       <c r="N1316" s="8"/>
     </row>
-    <row r="1317" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1317" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1317" s="1"/>
       <c r="E1317" s="1"/>
       <c r="H1317" s="7"/>
@@ -66503,7 +66511,7 @@
       <c r="M1317" s="8"/>
       <c r="N1317" s="8"/>
     </row>
-    <row r="1318" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1318" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1318" s="1"/>
       <c r="E1318" s="1"/>
       <c r="H1318" s="7"/>
@@ -66514,7 +66522,7 @@
       <c r="M1318" s="8"/>
       <c r="N1318" s="8"/>
     </row>
-    <row r="1319" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1319" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1319" s="1"/>
       <c r="E1319" s="1"/>
       <c r="H1319" s="7"/>
@@ -66525,7 +66533,7 @@
       <c r="M1319" s="8"/>
       <c r="N1319" s="8"/>
     </row>
-    <row r="1320" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1320" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1320" s="1"/>
       <c r="E1320" s="1"/>
       <c r="H1320" s="7"/>
@@ -66536,7 +66544,7 @@
       <c r="M1320" s="8"/>
       <c r="N1320" s="8"/>
     </row>
-    <row r="1321" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1321" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1321" s="1"/>
       <c r="E1321" s="1"/>
       <c r="H1321" s="7"/>
@@ -66547,7 +66555,7 @@
       <c r="M1321" s="8"/>
       <c r="N1321" s="8"/>
     </row>
-    <row r="1322" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1322" spans="4:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="D1322" s="1"/>
       <c r="E1322" s="1"/>
       <c r="H1322" s="7"/>
